--- a/biology/Microbiologie/Schaalia/Schaalia.xlsx
+++ b/biology/Microbiologie/Schaalia/Schaalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schaalia est un genre de bacilles Gram positifs de la famille des Actinomycetaceae. Son nom fait référence au microbiologiste Klaus P. Schaal, en hommage à ses travaux approfondis portant sur la taxonomie du genre Actinomyces.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est créé en 2018 par I. Nouioui et al. lors de la révision de l'embranchement des « Actinobacteria » (devenu Actinomycetota) réalisée par cette équipe sur la base de techniques de phylogénétique moléculaire[1]. Il est validé la même année par une publication dans l'IJSEM[2]. En s'appuyant sur le séquençage de génomes complets, et non sur celui d'un seul gène tel que celui de l'ARNr 16S, cette équipe propose la création de 17 nouveaux genres d’Actinomycetota, dont Schaalia. À sa création ce genre se compose donc uniquement d'espèces reclassées, notamment en provenance du genre Actinomyces.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est créé en 2018 par I. Nouioui et al. lors de la révision de l'embranchement des « Actinobacteria » (devenu Actinomycetota) réalisée par cette équipe sur la base de techniques de phylogénétique moléculaire. Il est validé la même année par une publication dans l'IJSEM. En s'appuyant sur le séquençage de génomes complets, et non sur celui d'un seul gène tel que celui de l'ARNr 16S, cette équipe propose la création de 17 nouveaux genres d’Actinomycetota, dont Schaalia. À sa création ce genre se compose donc uniquement d'espèces reclassées, notamment en provenance du genre Actinomyces.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la LPSN  (2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (2022) :
 Schaalia canis (Hoyles et al. 2000) Nouioui et al. 2018
 Schaalia cardiffensis (Hall et al. 2003) Nouioui et al. 2018
 Schaalia funkei (Lawson et al. 2001) Nouioui et al. 2018
